--- a/ipm_database.xlsx
+++ b/ipm_database.xlsx
@@ -5,22 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\IPM_p5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7610EED4-2E25-4481-89E7-D96DAEBA2589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB67B6AB-4FF6-442E-9AD0-F463D1EB375E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{541D89AB-7A8D-4DAD-B47E-89BA8A3CF71E}"/>
   </bookViews>
   <sheets>
     <sheet name="ipm-61-default-rtdb-export" sheetId="2" r:id="rId1"/>
-    <sheet name="Folha1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="DadosExternos_1" localSheetId="0" hidden="1">'ipm-61-default-rtdb-export'!$A$1:$L$977</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -7527,16 +7525,13 @@
     <cellStyle name="60% - Accent6" xfId="4" builtinId="52"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="4">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -7557,13 +7552,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7603,7 +7591,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7243D8D4-1369-44E5-8A70-88559101758F}" name="ipm_61_default_rtdb_export" displayName="ipm_61_default_rtdb_export" ref="A1:L977" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:L977" xr:uid="{7243D8D4-1369-44E5-8A70-88559101758F}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{AB5D8072-2E61-45DD-BFC8-D66D0DECBE46}" uniqueName="1" name="Name" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{AB5D8072-2E61-45DD-BFC8-D66D0DECBE46}" uniqueName="1" name="Name" queryTableFieldId="1" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{D576394D-0DBB-491D-AC0F-952BF194E5CC}" uniqueName="2" name="Value.accuracy" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{9B9E98AE-37B8-4018-A748-9A2D1A612059}" uniqueName="3" name="Value.assessed_by" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{7E9F3A89-4EE5-47FE-A075-E103C61FBC4B}" uniqueName="4" name="Value.attempt" queryTableFieldId="4"/>
@@ -7611,7 +7599,7 @@
     <tableColumn id="6" xr3:uid="{705DA260-F4EF-4971-BD6E-5397E227F76E}" uniqueName="6" name="Value.hits" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{9AF14B2E-DE6B-461A-93EC-9D67E2260DBB}" uniqueName="7" name="Value.misses" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{BDAA31CF-35D6-4367-934B-71016C28A24C}" uniqueName="8" name="Value.project_from" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{68F57172-2EAE-4B13-91BE-F425263B0AEB}" uniqueName="9" name="Value.target_w_penalty" queryTableFieldId="9" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{68F57172-2EAE-4B13-91BE-F425263B0AEB}" uniqueName="9" name="Value.target_w_penalty" queryTableFieldId="9" dataDxfId="0"/>
     <tableColumn id="10" xr3:uid="{C0462197-0833-4BF8-9A04-F1270DB644CA}" uniqueName="10" name="Value.test_completed_by" queryTableFieldId="10"/>
     <tableColumn id="11" xr3:uid="{3AB4A687-6E75-4012-BB9D-E4B0E59330AE}" uniqueName="11" name="Value.time_per_target" queryTableFieldId="11"/>
     <tableColumn id="12" xr3:uid="{E7B27ED4-AD47-4AE4-8816-7ED6AD3C485F}" uniqueName="12" name="Value.version" queryTableFieldId="12"/>
@@ -7919,7 +7907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA3CE54A-0627-4234-8EC8-8D852E963546}">
   <dimension ref="A1:Q977"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A928" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
@@ -46079,10 +46067,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I977">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46091,18 +46079,6 @@
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B73B6E5-7AF1-41F5-95D6-F6175C068628}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
